--- a/xlsx/country_comparison/conjoint_d_positive.xlsx
+++ b/xlsx/country_comparison/conjoint_d_positive.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">Conjoint: random programs &gt;&gt;A&lt;&lt; vs. B</t>
   </si>
   <si>
-    <t xml:space="preserve">Conjoint: random programs &gt;&gt;A+G&lt;&lt; vs. B</t>
+    <t xml:space="preserve">Conjoint: random programs &gt;&gt;A+GCS&lt;&lt; vs. B</t>
   </si>
 </sst>
 </file>
@@ -392,19 +392,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.492537313432836</v>
+        <v>0.471830985915493</v>
       </c>
       <c r="C2" t="n">
-        <v>0.580645161290323</v>
+        <v>0.56353591160221</v>
       </c>
       <c r="D2" t="n">
-        <v>0.379310344827586</v>
+        <v>0.508196721311475</v>
       </c>
       <c r="E2" t="n">
-        <v>0.514705882352941</v>
+        <v>0.565217391304348</v>
       </c>
       <c r="F2" t="n">
-        <v>0.619047619047619</v>
+        <v>0.523291925465838</v>
       </c>
     </row>
     <row r="3">
@@ -412,19 +412,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.626865671641791</v>
+        <v>0.647887323943662</v>
       </c>
       <c r="C3" t="n">
-        <v>0.548387096774194</v>
+        <v>0.640883977900553</v>
       </c>
       <c r="D3" t="n">
-        <v>0.413793103448276</v>
+        <v>0.622950819672131</v>
       </c>
       <c r="E3" t="n">
-        <v>0.647058823529412</v>
+        <v>0.608695652173913</v>
       </c>
       <c r="F3" t="n">
-        <v>0.476190476190476</v>
+        <v>0.585403726708075</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/conjoint_d_positive.xlsx
+++ b/xlsx/country_comparison/conjoint_d_positive.xlsx
@@ -392,19 +392,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.471830985915493</v>
+        <v>0.480645161290323</v>
       </c>
       <c r="C2" t="n">
-        <v>0.56353591160221</v>
+        <v>0.536327608982827</v>
       </c>
       <c r="D2" t="n">
-        <v>0.508196721311475</v>
+        <v>0.49171270718232</v>
       </c>
       <c r="E2" t="n">
-        <v>0.565217391304348</v>
+        <v>0.512422360248447</v>
       </c>
       <c r="F2" t="n">
-        <v>0.523291925465838</v>
+        <v>0.523148148148148</v>
       </c>
     </row>
     <row r="3">
@@ -412,19 +412,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.647887323943662</v>
+        <v>0.617741935483871</v>
       </c>
       <c r="C3" t="n">
-        <v>0.640883977900553</v>
+        <v>0.598414795244386</v>
       </c>
       <c r="D3" t="n">
-        <v>0.622950819672131</v>
+        <v>0.644567219152855</v>
       </c>
       <c r="E3" t="n">
-        <v>0.608695652173913</v>
+        <v>0.566770186335404</v>
       </c>
       <c r="F3" t="n">
-        <v>0.585403726708075</v>
+        <v>0.585905349794239</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/conjoint_d_positive.xlsx
+++ b/xlsx/country_comparison/conjoint_d_positive.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -29,13 +35,10 @@
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
-    <t xml:space="preserve">United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conjoint: random programs &gt;&gt;A&lt;&lt; vs. B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conjoint: random programs &gt;&gt;A+GCS&lt;&lt; vs. B</t>
+    <t xml:space="preserve">Random programs: A preferred to B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Random programs: A+GCS preferred to B</t>
   </si>
 </sst>
 </file>
@@ -386,45 +389,54 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.480645161290323</v>
+        <v>0.5361727996987</v>
       </c>
       <c r="C2" t="n">
-        <v>0.536327608982827</v>
+        <v>0.511325613137621</v>
       </c>
       <c r="D2" t="n">
-        <v>0.49171270718232</v>
+        <v>0.492355449543866</v>
       </c>
       <c r="E2" t="n">
-        <v>0.512422360248447</v>
+        <v>0.551918874759137</v>
       </c>
       <c r="F2" t="n">
-        <v>0.523148148148148</v>
+        <v>0.499827286052557</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.550714055513415</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.617741935483871</v>
+        <v>0.583564934623285</v>
       </c>
       <c r="C3" t="n">
-        <v>0.598414795244386</v>
+        <v>0.60085514854368</v>
       </c>
       <c r="D3" t="n">
-        <v>0.644567219152855</v>
+        <v>0.626458785077602</v>
       </c>
       <c r="E3" t="n">
-        <v>0.566770186335404</v>
+        <v>0.571808732582098</v>
       </c>
       <c r="F3" t="n">
-        <v>0.585905349794239</v>
+        <v>0.641263799532265</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.58845359372917</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/conjoint_d_positive.xlsx
+++ b/xlsx/country_comparison/conjoint_d_positive.xlsx
@@ -398,22 +398,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5361727996987</v>
+        <v>0.533492678437669</v>
       </c>
       <c r="C2" t="n">
-        <v>0.511325613137621</v>
+        <v>0.513942061583579</v>
       </c>
       <c r="D2" t="n">
-        <v>0.492355449543866</v>
+        <v>0.506057471694298</v>
       </c>
       <c r="E2" t="n">
-        <v>0.551918874759137</v>
+        <v>0.533123553562043</v>
       </c>
       <c r="F2" t="n">
-        <v>0.499827286052557</v>
+        <v>0.500487977059532</v>
       </c>
       <c r="G2" t="n">
-        <v>0.550714055513415</v>
+        <v>0.540700704172633</v>
       </c>
     </row>
     <row r="3">
@@ -421,22 +421,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.583564934623285</v>
+        <v>0.576205789168793</v>
       </c>
       <c r="C3" t="n">
-        <v>0.60085514854368</v>
+        <v>0.601954513853657</v>
       </c>
       <c r="D3" t="n">
-        <v>0.626458785077602</v>
+        <v>0.609815593954741</v>
       </c>
       <c r="E3" t="n">
-        <v>0.571808732582098</v>
+        <v>0.593254124007975</v>
       </c>
       <c r="F3" t="n">
-        <v>0.641263799532265</v>
+        <v>0.638089911624065</v>
       </c>
       <c r="G3" t="n">
-        <v>0.58845359372917</v>
+        <v>0.576936945671302</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/conjoint_d_positive.xlsx
+++ b/xlsx/country_comparison/conjoint_d_positive.xlsx
@@ -398,22 +398,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.533492678437669</v>
+        <v>0.533497436598569</v>
       </c>
       <c r="C2" t="n">
-        <v>0.513942061583579</v>
+        <v>0.515568344277864</v>
       </c>
       <c r="D2" t="n">
-        <v>0.506057471694298</v>
+        <v>0.506068597635881</v>
       </c>
       <c r="E2" t="n">
-        <v>0.533123553562043</v>
+        <v>0.533117515660524</v>
       </c>
       <c r="F2" t="n">
-        <v>0.500487977059532</v>
+        <v>0.499637009567641</v>
       </c>
       <c r="G2" t="n">
-        <v>0.540700704172633</v>
+        <v>0.540666995309358</v>
       </c>
     </row>
     <row r="3">
@@ -421,22 +421,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.576205789168793</v>
+        <v>0.576260769994676</v>
       </c>
       <c r="C3" t="n">
-        <v>0.601954513853657</v>
+        <v>0.602521116263654</v>
       </c>
       <c r="D3" t="n">
-        <v>0.609815593954741</v>
+        <v>0.609808785858749</v>
       </c>
       <c r="E3" t="n">
-        <v>0.593254124007975</v>
+        <v>0.593269893728387</v>
       </c>
       <c r="F3" t="n">
-        <v>0.638089911624065</v>
+        <v>0.65080574369961</v>
       </c>
       <c r="G3" t="n">
-        <v>0.576936945671302</v>
+        <v>0.576958671759513</v>
       </c>
     </row>
   </sheetData>
